--- a/핀할당표.xlsx
+++ b/핀할당표.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="12740" yWindow="820" windowWidth="19220" windowHeight="20560"/>
   </bookViews>
   <sheets>
-    <sheet name="시트 1 - 핀 할당 표" sheetId="1" r:id="rId4"/>
+    <sheet name="시트 1 - 핀 할당 표" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>핀 할당 표</t>
   </si>
@@ -207,16 +214,145 @@
   </si>
   <si>
     <t xml:space="preserve">총 개수 </t>
+  </si>
+  <si>
+    <t>Loop 2 LED</t>
+  </si>
+  <si>
+    <t>Loop1 LED</t>
+  </si>
+  <si>
+    <t>Channel A LED</t>
+  </si>
+  <si>
+    <t>Channel B LED</t>
+  </si>
+  <si>
+    <t>Channel C LED</t>
+  </si>
+  <si>
+    <t>Channel D LED</t>
+  </si>
+  <si>
+    <t>Tuner LED</t>
+  </si>
+  <si>
+    <t>Loop 3 LED</t>
+  </si>
+  <si>
+    <t>Loop 4 LED</t>
+  </si>
+  <si>
+    <t>Loop 5 LED</t>
+  </si>
+  <si>
+    <t>Loop 6 LED</t>
+  </si>
+  <si>
+    <t>Loop 7 LED</t>
+  </si>
+  <si>
+    <t>Loop 8 LED</t>
+  </si>
+  <si>
+    <t>TLP 222G OUT</t>
+  </si>
+  <si>
+    <t>Amp CTL OUT</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>UP ARROW</t>
+  </si>
+  <si>
+    <t>DOWN ARROW</t>
+  </si>
+  <si>
+    <t>LEFT ARROW</t>
+  </si>
+  <si>
+    <t>RIGHT ARROW</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>ENTER</t>
+  </si>
+  <si>
+    <t>EXIT</t>
+  </si>
+  <si>
+    <t>Channel D</t>
+  </si>
+  <si>
+    <t>Channel C</t>
+  </si>
+  <si>
+    <t>Channel B</t>
+  </si>
+  <si>
+    <t>Channel A</t>
+  </si>
+  <si>
+    <t>Bank up</t>
+  </si>
+  <si>
+    <t>Bank down</t>
+  </si>
+  <si>
+    <t>Loop 1</t>
+  </si>
+  <si>
+    <t>Loop 2</t>
+  </si>
+  <si>
+    <t>Loop 3</t>
+  </si>
+  <si>
+    <t>Loop 4</t>
+  </si>
+  <si>
+    <t>Loop 5</t>
+  </si>
+  <si>
+    <t>Loop 6</t>
+  </si>
+  <si>
+    <t>Loop 7</t>
+  </si>
+  <si>
+    <t>Loop8</t>
+  </si>
+  <si>
+    <t>Amp CTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuner </t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>LCD control</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -237,8 +373,12 @@
       <color indexed="8"/>
       <name val="Apple SD 산돌고딕 Neo 볼드체"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +395,24 @@
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -283,39 +441,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -323,27 +502,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -535,7 +767,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -544,7 +776,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -553,7 +785,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -562,7 +794,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -571,7 +803,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -580,7 +812,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -692,8 +924,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -701,14 +933,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -727,7 +959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -735,7 +967,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -763,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -815,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,9 +1216,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1002,7 +1240,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1021,7 +1259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +1285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,9 +1506,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1283,7 +1527,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1302,7 +1546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +1576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +1602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,7 +1706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,7 +1732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1514,7 +1758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,7 +1784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,893 +1797,923 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E73"/>
+  <dimension ref="A1:IV77"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.05469" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.05469" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.05469" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.05469" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.05469" style="1" customWidth="1"/>
-    <col min="6" max="256" width="9.05469" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:5" ht="20.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" t="s" s="7">
+      <c r="C8" s="6"/>
+      <c r="D8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" t="s" s="7">
+      <c r="C13" s="6"/>
+      <c r="D13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="5">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="5">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="5">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="5">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="5">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="5">
+        <v>31</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="5">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="5">
+        <v>35</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="5">
+        <v>37</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="5">
+        <v>39</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5">
+        <v>40</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5">
+        <v>41</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="5">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="5">
+        <v>43</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="5">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="5">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="5">
+        <v>46</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="5">
+        <v>47</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="5">
+        <v>48</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="5">
+        <v>49</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="5">
+        <v>50</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="5">
+        <v>51</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="5">
+        <v>52</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" t="s" s="7">
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="5">
+        <v>53</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" t="s" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" t="s" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s" s="7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6">
-        <v>21</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="B25" s="6">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="6">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="6">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="6">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="6">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="6">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="20.35" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="6">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" ht="20.35" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="6">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="20.35" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="6">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" ht="20.35" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="6">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" ht="20.35" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" s="6">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="20.35" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="6">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" ht="20.35" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="6">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" ht="20.35" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="6">
-        <v>42</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" ht="20.35" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="6">
-        <v>43</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" ht="20.35" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="6">
-        <v>44</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" ht="20.35" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" s="6">
-        <v>45</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" ht="20.35" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="6">
-        <v>46</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" ht="20.35" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="6">
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" ht="20.35" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="6">
+      <c r="B57" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" ht="20.35" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="6">
+      <c r="C57" s="7"/>
+      <c r="D57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" ht="20.35" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="6">
+      <c r="C58" s="7"/>
+      <c r="D58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" ht="20.35" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="6">
+      <c r="C59" s="7"/>
+      <c r="D59" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" ht="20.35" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="6">
+      <c r="C60" s="7"/>
+      <c r="D60" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" ht="20.35" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="6">
+      <c r="C61" s="7"/>
+      <c r="D61" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A62" s="8"/>
+      <c r="B62" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" ht="20.35" customHeight="1">
-      <c r="A57" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="B57" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" ht="20.35" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" ht="20.35" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" ht="20.35" customHeight="1">
-      <c r="A60" s="9"/>
-      <c r="B60" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" ht="20.35" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" ht="20.35" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="B62" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" ht="20.35" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" t="s" s="6">
+      <c r="C62" s="7"/>
+      <c r="D62" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" ht="20.35" customHeight="1">
-      <c r="A64" s="9"/>
-      <c r="B64" t="s" s="6">
+      <c r="C63" s="7"/>
+      <c r="D63" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" ht="20.35" customHeight="1">
-      <c r="A65" s="9"/>
-      <c r="B65" t="s" s="6">
+      <c r="C64" s="7"/>
+      <c r="D64" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" ht="20.35" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" t="s" s="6">
+      <c r="C65" s="7"/>
+      <c r="D65" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" ht="20.35" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" t="s" s="6">
+      <c r="C66" s="7"/>
+      <c r="D66" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" ht="20.35" customHeight="1">
-      <c r="A68" s="9"/>
-      <c r="B68" t="s" s="6">
+      <c r="C67" s="7"/>
+      <c r="D67" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" ht="20.35" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" t="s" s="6">
+      <c r="C68" s="7"/>
+      <c r="D68" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A69" s="8"/>
+      <c r="B69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E69" t="s" s="7">
+      <c r="C69" s="7"/>
+      <c r="D69" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" ht="20.35" customHeight="1">
-      <c r="A70" s="9"/>
-      <c r="B70" t="s" s="6">
+    <row r="70" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A70" s="8"/>
+      <c r="B70" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s" s="7">
+      <c r="C70" s="7"/>
+      <c r="D70" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" ht="20.35" customHeight="1">
-      <c r="A71" s="9"/>
-      <c r="B71" t="s" s="6">
+    <row r="71" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A71" s="8"/>
+      <c r="B71" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" ht="20.35" customHeight="1">
-      <c r="A72" s="9"/>
-      <c r="B72" t="s" s="6">
+      <c r="C71" s="7"/>
+      <c r="D71" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" ht="20.35" customHeight="1">
-      <c r="A73" t="s" s="5">
+      <c r="C72" s="7"/>
+      <c r="D72" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="6">
         <f>COUNTA(B3:B72)</f>
         <v>70</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <f>COUNTA(C3:C72)</f>
         <v>27</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <f>COUNTA(D3:D72)</f>
         <v>43</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="75" spans="1:5" ht="18" customHeight="1">
+      <c r="B75" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18" customHeight="1">
+      <c r="B76" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18" customHeight="1">
+      <c r="B77" s="14" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup scale="44" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>